--- a/biology/Médecine/Salsalate/Salsalate.xlsx
+++ b/biology/Médecine/Salsalate/Salsalate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le salsalate, est une molécule utilisée comme médicament anti-inflammatoire non stéroïdien  de type salicylate et vendu entre autres sous le nom de marque Disalcid[1].
+Le salsalate, est une molécule utilisée comme médicament anti-inflammatoire non stéroïdien  de type salicylate et vendu entre autres sous le nom de marque Disalcid.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un anti-inflammatoire non stéroïdien  de type salicylate qui bloque à la fois la COX-1 et la COX-2 [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un anti-inflammatoire non stéroïdien  de type salicylate qui bloque à la fois la COX-1 et la COX-2 .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter l'inflammation dans des affections telles que la polyarthrite rhumatoïde [1]. Il se prend par voie orale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter l'inflammation dans des affections telles que la polyarthrite rhumatoïde . Il se prend par voie orale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires du  médicament comprennent des bourdonnements d’oreilles, des nausées et des éruptions cutanées; [1] d'autres effets secondaires peuvent inclure le syndrome de Reye, des saignements d'estomac, des problèmes rénaux, des problèmes hépatiques et une anaphylaxie [1]. L'utilisation en fin de grossesse peut nuire au fœtus[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires du  médicament comprennent des bourdonnements d’oreilles, des nausées et des éruptions cutanées;  d'autres effets secondaires peuvent inclure le syndrome de Reye, des saignements d'estomac, des problèmes rénaux, des problèmes hépatiques et une anaphylaxie . L'utilisation en fin de grossesse peut nuire au fœtus.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été introduit dans les années 1960[2]. Il est disponible sous forme de médicament générique [3]. Aux États-Unis, 60 comprimés de 750 mg coûtent environ 25 dollars américains  en 2021[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été introduit dans les années 1960. Il est disponible sous forme de médicament générique . Aux États-Unis, 60 comprimés de 750 mg coûtent environ 25 dollars américains  en 2021.
 </t>
         </is>
       </c>
